--- a/dataconfig/interfaceTest.xlsx
+++ b/dataconfig/interfaceTest.xlsx
@@ -46,15 +46,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -68,7 +67,24 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -83,17 +99,9 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,7 +109,7 @@
       <charset val="0"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,7 +124,22 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -145,29 +168,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -176,8 +176,8 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -190,7 +190,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,31 +208,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,19 +226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,7 +238,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +280,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +310,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,73 +364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +397,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -417,11 +432,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,21 +462,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -467,162 +473,156 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="32" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="25" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="9" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="164">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="10" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="9" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="13" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="10" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="13" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="165">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="28" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="11" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0">
@@ -951,7 +951,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="A11" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12" outlineLevelRow="7"/>
@@ -1365,13 +1365,6 @@
       <c r="L8" t="inlineStr">
         <is>
           <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>白妖宇宙第一无敌帅</t>
         </is>
       </c>
     </row>

--- a/dataconfig/interfaceTest.xlsx
+++ b/dataconfig/interfaceTest.xlsx
@@ -1018,7 +1018,7 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>实际结果</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
